--- a/natmiOut/OldD0/LR-pairs_lrc2p/Spp1-Itgav.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Spp1-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.9010888983583</v>
+        <v>282.7879796666667</v>
       </c>
       <c r="H2">
-        <v>50.9010888983583</v>
+        <v>848.363939</v>
       </c>
       <c r="I2">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401267</v>
       </c>
       <c r="J2">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401266</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N2">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q2">
-        <v>869.7026449895113</v>
+        <v>5966.640107950727</v>
       </c>
       <c r="R2">
-        <v>869.7026449895113</v>
+        <v>53699.76097155654</v>
       </c>
       <c r="S2">
-        <v>0.2176548498588523</v>
+        <v>0.2822286508184664</v>
       </c>
       <c r="T2">
-        <v>0.2176548498588523</v>
+        <v>0.2822286508184664</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.9010888983583</v>
+        <v>282.7879796666667</v>
       </c>
       <c r="H3">
-        <v>50.9010888983583</v>
+        <v>848.363939</v>
       </c>
       <c r="I3">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401267</v>
       </c>
       <c r="J3">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401266</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N3">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q3">
-        <v>1813.234950168686</v>
+        <v>10129.30641055277</v>
       </c>
       <c r="R3">
-        <v>1813.234950168686</v>
+        <v>91163.75769497491</v>
       </c>
       <c r="S3">
-        <v>0.4537865707451638</v>
+        <v>0.4791273531258807</v>
       </c>
       <c r="T3">
-        <v>0.4537865707451638</v>
+        <v>0.4791273531258807</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.9010888983583</v>
+        <v>282.7879796666667</v>
       </c>
       <c r="H4">
-        <v>50.9010888983583</v>
+        <v>848.363939</v>
       </c>
       <c r="I4">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401267</v>
       </c>
       <c r="J4">
-        <v>0.8661803810028779</v>
+        <v>0.9674521741401266</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N4">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q4">
-        <v>778.135608056654</v>
+        <v>4357.111411683502</v>
       </c>
       <c r="R4">
-        <v>778.135608056654</v>
+        <v>39214.00270515151</v>
       </c>
       <c r="S4">
-        <v>0.1947389603988618</v>
+        <v>0.2060961701957797</v>
       </c>
       <c r="T4">
-        <v>0.1947389603988618</v>
+        <v>0.2060961701957797</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.08930503497068</v>
+        <v>7.714696666666668</v>
       </c>
       <c r="H5">
-        <v>6.08930503497068</v>
+        <v>23.14409</v>
       </c>
       <c r="I5">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="J5">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N5">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q5">
-        <v>104.0426601803553</v>
+        <v>162.7750182531289</v>
       </c>
       <c r="R5">
-        <v>104.0426601803553</v>
+        <v>1464.97516427816</v>
       </c>
       <c r="S5">
-        <v>0.0260380829136652</v>
+        <v>0.007699437699839762</v>
       </c>
       <c r="T5">
-        <v>0.0260380829136652</v>
+        <v>0.007699437699839762</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.08930503497068</v>
+        <v>7.714696666666668</v>
       </c>
       <c r="H6">
-        <v>6.08930503497068</v>
+        <v>23.14409</v>
       </c>
       <c r="I6">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="J6">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N6">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q6">
-        <v>216.9175738793105</v>
+        <v>276.3360963689078</v>
       </c>
       <c r="R6">
-        <v>216.9175738793105</v>
+        <v>2487.02486732017</v>
       </c>
       <c r="S6">
-        <v>0.05428655672884292</v>
+        <v>0.01307100180999933</v>
       </c>
       <c r="T6">
-        <v>0.05428655672884292</v>
+        <v>0.01307100180999933</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.08930503497068</v>
+        <v>7.714696666666668</v>
       </c>
       <c r="H7">
-        <v>6.08930503497068</v>
+        <v>23.14409</v>
       </c>
       <c r="I7">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="J7">
-        <v>0.1036212912019601</v>
+        <v>0.02639291836872237</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N7">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q7">
-        <v>93.08848157435347</v>
+        <v>118.8657061153445</v>
       </c>
       <c r="R7">
-        <v>93.08848157435347</v>
+        <v>1069.7913550381</v>
       </c>
       <c r="S7">
-        <v>0.02329665155945202</v>
+        <v>0.005622478858883277</v>
       </c>
       <c r="T7">
-        <v>0.02329665155945202</v>
+        <v>0.005622478858883277</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.77460469135031</v>
+        <v>1.799090333333333</v>
       </c>
       <c r="H8">
-        <v>1.77460469135031</v>
+        <v>5.397271</v>
       </c>
       <c r="I8">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="J8">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N8">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q8">
-        <v>30.32112725446897</v>
+        <v>37.95962103250044</v>
       </c>
       <c r="R8">
-        <v>30.32112725446897</v>
+        <v>341.636589292504</v>
       </c>
       <c r="S8">
-        <v>0.00758827219641512</v>
+        <v>0.001795531896637623</v>
       </c>
       <c r="T8">
-        <v>0.00758827219641512</v>
+        <v>0.001795531896637623</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.77460469135031</v>
+        <v>1.799090333333333</v>
       </c>
       <c r="H9">
-        <v>1.77460469135031</v>
+        <v>5.397271</v>
       </c>
       <c r="I9">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="J9">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N9">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q9">
-        <v>63.21623601245744</v>
+        <v>64.44240405153589</v>
       </c>
       <c r="R9">
-        <v>63.21623601245744</v>
+        <v>579.9816364638231</v>
       </c>
       <c r="S9">
-        <v>0.01582071807784273</v>
+        <v>0.003048196710696204</v>
       </c>
       <c r="T9">
-        <v>0.01582071807784273</v>
+        <v>0.003048196710696204</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.77460469135031</v>
+        <v>1.799090333333333</v>
       </c>
       <c r="H10">
-        <v>1.77460469135031</v>
+        <v>5.397271</v>
       </c>
       <c r="I10">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="J10">
-        <v>0.03019832779516201</v>
+        <v>0.006154907491150983</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N10">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q10">
-        <v>27.12875363671447</v>
+        <v>27.71983813193222</v>
       </c>
       <c r="R10">
-        <v>27.12875363671447</v>
+        <v>249.47854318739</v>
       </c>
       <c r="S10">
-        <v>0.006789337520904161</v>
+        <v>0.001311178883817156</v>
       </c>
       <c r="T10">
-        <v>0.006789337520904161</v>
+        <v>0.001311178883817156</v>
       </c>
     </row>
   </sheetData>
